--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AD0C1-2703-4F0D-98EC-E75EF8C3D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50EBD1E-E385-4ED7-945D-5572C9C62B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -90,13 +90,33 @@
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,9 +140,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -660,10 +689,81 @@
       </c>
       <c r="H11" s="5"/>
     </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -671,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -750,7 +850,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
@@ -766,6 +866,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>